--- a/Document/3_Test Case/Test case 양식 맞춰서_ 진짜.xlsx
+++ b/Document/3_Test Case/Test case 양식 맞춰서_ 진짜.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jennifer/Documents/GitHub/ChemicalManagementApplication/Document/3_Test Case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\문혁주\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E732271-AB67-5341-9281-5839ACB4DD83}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FB1416-4A24-4FAA-A8DA-08FF15CFB860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case 1 일부" sheetId="14" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3516" uniqueCount="386">
   <si>
     <t>Scenario 명</t>
   </si>
@@ -1497,6 +1497,9 @@
   </si>
   <si>
     <t>AF6. 적합성 검사에 통과하지 못할 경우</t>
+  </si>
+  <si>
+    <t>장소 적합성 확인 - 알칼리 금속 추가</t>
   </si>
 </sst>
 </file>
@@ -1551,18 +1554,12 @@
       <name val="함초롬바탕"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -1656,7 +1653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1743,9 +1740,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1770,14 +1764,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1799,7 +1793,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{987B8334-A4AC-46AB-BB4B-C8D7EA545DEC}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2108,7 +2102,7 @@
       <selection activeCell="D4" sqref="D4:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="4" max="4" width="84.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
@@ -2124,46 +2118,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="34.25" customHeight="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46" t="s">
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="39" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="34.25" customHeight="1">
-      <c r="B3" s="40"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="8" t="s">
         <v>179</v>
       </c>
@@ -2203,9 +2197,9 @@
       <c r="Q3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="40"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="40"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="39"/>
     </row>
     <row r="4" spans="2:20" ht="34.25" customHeight="1">
       <c r="B4" s="18"/>
@@ -2599,7 +2593,7 @@
       <c r="S11" s="17"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="2:20" ht="18">
+    <row r="12" spans="2:20">
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="6" t="s">
@@ -2648,7 +2642,7 @@
       <c r="S12" s="17"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="2:20" ht="18">
+    <row r="13" spans="2:20">
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="6" t="s">
@@ -2697,7 +2691,7 @@
       <c r="S13" s="17"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="2:20" ht="18">
+    <row r="14" spans="2:20">
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="6" t="s">
@@ -2746,7 +2740,7 @@
       <c r="S14" s="17"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="2:20" ht="18">
+    <row r="15" spans="2:20">
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="33" t="s">
@@ -2828,7 +2822,7 @@
       <c r="S16" s="17"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="2:20" ht="18">
+    <row r="17" spans="2:20">
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="33" t="s">
@@ -2869,7 +2863,7 @@
       <c r="S17" s="17"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="2:20" ht="18">
+    <row r="18" spans="2:20">
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
       <c r="D18" s="33" t="s">
@@ -2910,7 +2904,7 @@
       <c r="S18" s="17"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="2:20" ht="18">
+    <row r="19" spans="2:20">
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="33" t="s">
@@ -2951,7 +2945,7 @@
       <c r="S19" s="17"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="2:20" ht="18">
+    <row r="20" spans="2:20">
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="33" t="s">
@@ -2992,7 +2986,7 @@
       <c r="S20" s="17"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="2:20" ht="18">
+    <row r="21" spans="2:20">
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="33" t="s">
@@ -3033,7 +3027,7 @@
       <c r="S21" s="17"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="2:20" ht="18">
+    <row r="22" spans="2:20">
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="D22" s="33" t="s">
@@ -3074,7 +3068,7 @@
       <c r="S22" s="17"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="2:20" ht="18">
+    <row r="23" spans="2:20">
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="33" t="s">
@@ -3115,7 +3109,7 @@
       <c r="S23" s="17"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="2:20" ht="18">
+    <row r="24" spans="2:20">
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="33" t="s">
@@ -3156,7 +3150,7 @@
       <c r="S24" s="17"/>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="2:20" ht="18">
+    <row r="25" spans="2:20">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="6" t="s">
@@ -3207,7 +3201,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="3"/>
     </row>
-    <row r="26" spans="2:20" ht="18">
+    <row r="26" spans="2:20">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="s">
@@ -3258,7 +3252,7 @@
       <c r="S26" s="5"/>
       <c r="T26" s="3"/>
     </row>
-    <row r="27" spans="2:20" ht="18">
+    <row r="27" spans="2:20">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
@@ -3309,7 +3303,7 @@
       <c r="S27" s="5"/>
       <c r="T27" s="3"/>
     </row>
-    <row r="28" spans="2:20" ht="18">
+    <row r="28" spans="2:20">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="s">
@@ -3360,7 +3354,7 @@
       <c r="S28" s="5"/>
       <c r="T28" s="3"/>
     </row>
-    <row r="29" spans="2:20" ht="18">
+    <row r="29" spans="2:20">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="6" t="s">
@@ -3411,7 +3405,7 @@
       <c r="S29" s="5"/>
       <c r="T29" s="3"/>
     </row>
-    <row r="30" spans="2:20" ht="18">
+    <row r="30" spans="2:20">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="6" t="s">
@@ -3462,7 +3456,7 @@
       <c r="S30" s="5"/>
       <c r="T30" s="3"/>
     </row>
-    <row r="31" spans="2:20" ht="18">
+    <row r="31" spans="2:20">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="6" t="s">
@@ -3513,7 +3507,7 @@
       <c r="S31" s="5"/>
       <c r="T31" s="3"/>
     </row>
-    <row r="32" spans="2:20" ht="18">
+    <row r="32" spans="2:20">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="6" t="s">
@@ -3585,11 +3579,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBECBC9-FE1B-8943-B752-675EEBC02EB5}">
   <dimension ref="B2:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
@@ -3613,58 +3607,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="34.25" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="48" t="s">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="49" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="V2" s="50" t="s">
+      <c r="V2" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:23" ht="34.25" customHeight="1">
-      <c r="B3" s="46"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="8" t="s">
         <v>372</v>
       </c>
@@ -3704,9 +3698,9 @@
       <c r="T3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="40"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="40"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="39"/>
     </row>
     <row r="4" spans="2:23" ht="34.25" customHeight="1">
       <c r="B4" s="22"/>
@@ -4678,7 +4672,9 @@
       <c r="D22" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="E22" s="36"/>
+      <c r="E22" s="36" t="s">
+        <v>384</v>
+      </c>
       <c r="F22" s="22"/>
       <c r="G22" s="33" t="s">
         <v>365</v>
@@ -4726,9 +4722,7 @@
       <c r="D23" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="E23" s="38" t="s">
-        <v>384</v>
-      </c>
+      <c r="E23" s="35"/>
       <c r="F23" s="22"/>
       <c r="G23" s="33" t="s">
         <v>367</v>
@@ -4776,7 +4770,9 @@
       <c r="D24" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="E24" s="35"/>
+      <c r="E24" s="35" t="s">
+        <v>384</v>
+      </c>
       <c r="F24" s="22"/>
       <c r="G24" s="33" t="s">
         <v>365</v>
@@ -4827,7 +4823,7 @@
       <c r="E25" s="35"/>
       <c r="F25" s="22"/>
       <c r="G25" s="6" t="s">
-        <v>172</v>
+        <v>385</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>186</v>
@@ -4882,7 +4878,9 @@
       <c r="D26" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="E26" s="35"/>
+      <c r="E26" s="35" t="s">
+        <v>384</v>
+      </c>
       <c r="F26" s="22"/>
       <c r="G26" s="6" t="s">
         <v>370</v>
@@ -4998,7 +4996,9 @@
       <c r="D28" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="E28" s="35"/>
+      <c r="E28" s="35" t="s">
+        <v>384</v>
+      </c>
       <c r="F28" s="22"/>
       <c r="G28" s="6" t="s">
         <v>371</v>
@@ -5114,7 +5114,9 @@
       <c r="D30" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="36" t="s">
+        <v>384</v>
+      </c>
       <c r="F30" s="22"/>
       <c r="G30" s="6" t="s">
         <v>175</v>
@@ -5172,7 +5174,9 @@
       <c r="D31" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="E31" s="35"/>
+      <c r="E31" s="35" t="s">
+        <v>384</v>
+      </c>
       <c r="F31" s="22"/>
       <c r="G31" s="6" t="s">
         <v>176</v>
@@ -5230,7 +5234,9 @@
       <c r="D32" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="E32" s="36"/>
+      <c r="E32" s="36" t="s">
+        <v>384</v>
+      </c>
       <c r="F32" s="22"/>
       <c r="G32" s="6" t="s">
         <v>177</v>
@@ -5282,17 +5288,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
   </mergeCells>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
@@ -5305,7 +5311,7 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
@@ -5324,54 +5330,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="48" t="s">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="49" t="s">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="R2" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B3" s="46"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="8" t="s">
         <v>107</v>
       </c>
@@ -5399,9 +5405,9 @@
       <c r="P3" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="40"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="2:19" ht="34.25" customHeight="1">
       <c r="B4" s="22"/>
@@ -5821,17 +5827,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -5845,7 +5851,7 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
@@ -5868,57 +5874,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="48" t="s">
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="49" t="s">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="V2" s="39" t="s">
+      <c r="V2" s="38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="34.25" customHeight="1">
-      <c r="B3" s="46"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="7" t="s">
         <v>43</v>
       </c>
@@ -5955,9 +5961,9 @@
       <c r="S3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
     </row>
     <row r="4" spans="2:22" ht="34.25" customHeight="1">
       <c r="B4" s="22"/>
@@ -6974,17 +6980,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="L2:S2"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -6998,7 +7004,7 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
@@ -7046,58 +7052,58 @@
     </row>
     <row r="2" spans="1:22" ht="34.25" customHeight="1">
       <c r="A2" s="26"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="48" t="s">
+      <c r="I2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="49" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="V2" s="39" t="s">
+      <c r="V2" s="38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="34.25" customHeight="1">
       <c r="A3" s="26"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="7" t="s">
         <v>43</v>
       </c>
@@ -7134,9 +7140,9 @@
       <c r="S3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
     </row>
     <row r="4" spans="1:22" ht="34.25" customHeight="1">
       <c r="A4" s="26"/>
@@ -7736,17 +7742,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:S2"/>
     <mergeCell ref="T2:T3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -7760,7 +7766,7 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" customWidth="1"/>
@@ -7781,54 +7787,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="48" t="s">
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="49" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="R2" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="38" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B3" s="46"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="7" t="s">
         <v>107</v>
       </c>
@@ -7856,9 +7862,9 @@
       <c r="P3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="2:19" ht="34.25" customHeight="1">
       <c r="B4" s="22"/>
